--- a/biology/Histoire de la zoologie et de la botanique/Jacques-Nicolas_Vallot/Jacques-Nicolas_Vallot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques-Nicolas_Vallot/Jacques-Nicolas_Vallot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques-Nicolas Vallot, né le 22 février 1771 à Dijon, où il est mort le 22 janvier 1860, est un médecin et un naturaliste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine, Vallot fut professeur d’histoire naturelle à l’école secondaire de médecine de Dijon[1],[2] et membre de plusieurs sociétés savantes, françaises et étrangères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine, Vallot fut professeur d’histoire naturelle à l’école secondaire de médecine de Dijon, et membre de plusieurs sociétés savantes, françaises et étrangères.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Détermination précise des insectes nuisibles, mentionnés dans les différents traités relatifs à la culture des arbres fruitiers, et indications des moyens à employer pour s'opposer à leurs ravages, 1827.
 Ichthyologie française : ou Histoire naturelle des poissons d’eau douce de la France, Dijon, E. Frantin, 1837, 321 p., in-8° (lire en ligne).
@@ -576,7 +592,9 @@
           <t>Espèces décrites par Vallot</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jaapiella veronicae
